--- a/Combined.xlsx
+++ b/Combined.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Excel1_Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Excel2_Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="シート1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -38,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -46,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,29 +422,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>aaaa</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>aaaa.1</t>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>aaaa</t>
         </is>
       </c>
     </row>
@@ -525,111 +500,80 @@
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>bbbb</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>bbbb.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>bbbb</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>bbbb</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>bbbb</t>
         </is>
